--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2070864.998829661</v>
+        <v>-2073725.812621953</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>244.8448976285501</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>116.9725659584295</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -744,16 +744,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>72.37061579136852</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>104.1849721295076</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>133.2397027756574</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>67.46163828586553</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>238.2465881603291</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2792495146817833</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>212.568965117905</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,25 +972,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>74.24802517546375</v>
+        <v>65.94985351205719</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1026,10 +1026,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>20.06166367650272</v>
       </c>
       <c r="C7" t="n">
-        <v>25.80770480765941</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>207.9526563244752</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.74167907658358</v>
+        <v>11.74167907658359</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>127.8724504177536</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>1.270374581344679</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.438182924131</v>
       </c>
       <c r="H9" t="n">
-        <v>93.83392671696369</v>
+        <v>93.83392671696373</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>23.7963092690663</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>136.2924232858445</v>
+        <v>136.2924232858446</v>
       </c>
       <c r="T9" t="n">
         <v>192.4848946346715</v>
@@ -1269,13 +1269,13 @@
         <v>225.8160311441933</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>174.4260950635444</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>202.0701920623216</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3936111367397</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>107.4132560413787</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>105.4699075169639</v>
       </c>
       <c r="S10" t="n">
         <v>196.178826391195</v>
       </c>
       <c r="T10" t="n">
-        <v>221.1204706627545</v>
+        <v>144.4162644113537</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2319001807608</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>139.706951979149</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>83.53432244437066</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>35.19779014107866</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533521009</v>
       </c>
     </row>
     <row r="14">
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>105.8460632289448</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>42.71572132711282</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1853,13 +1853,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444147</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2008,7 +2008,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>72.60410776434607</v>
+        <v>140.1760114441845</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>132.473663369464</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>161.355549430153</v>
       </c>
     </row>
     <row r="23">
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>3.453391420150774</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2719,16 +2719,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>242.9192109362943</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4028,10 +4028,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>287.4747669672984</v>
+        <v>936.7014129773081</v>
       </c>
       <c r="C2" t="n">
-        <v>287.4747669672984</v>
+        <v>936.7014129773081</v>
       </c>
       <c r="D2" t="n">
-        <v>287.4747669672984</v>
+        <v>936.7014129773081</v>
       </c>
       <c r="E2" t="n">
-        <v>21.09711040012049</v>
+        <v>936.7014129773081</v>
       </c>
       <c r="F2" t="n">
-        <v>21.09711040012049</v>
+        <v>670.32375641013</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991315</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358411</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4361,19 +4361,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>801.1705019471533</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>801.1705019471533</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>801.1705019471533</v>
+        <v>936.7014129773081</v>
       </c>
       <c r="X2" t="n">
-        <v>801.1705019471533</v>
+        <v>936.7014129773081</v>
       </c>
       <c r="Y2" t="n">
-        <v>534.7928453799753</v>
+        <v>936.7014129773081</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>620.907837242328</v>
+        <v>479.4813841052953</v>
       </c>
       <c r="C3" t="n">
-        <v>446.454807961201</v>
+        <v>305.0283548241683</v>
       </c>
       <c r="D3" t="n">
-        <v>446.454807961201</v>
+        <v>305.0283548241683</v>
       </c>
       <c r="E3" t="n">
-        <v>373.3531758487076</v>
+        <v>305.0283548241683</v>
       </c>
       <c r="F3" t="n">
-        <v>226.8186178755926</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004802</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699343</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4446,13 +4446,13 @@
         <v>1036.519636212815</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.519636212815</v>
+        <v>782.2822794846134</v>
       </c>
       <c r="X3" t="n">
-        <v>828.6681360072819</v>
+        <v>782.2822794846134</v>
       </c>
       <c r="Y3" t="n">
-        <v>620.907837242328</v>
+        <v>647.6967211253634</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>651.1328882755971</v>
+        <v>459.9408362448543</v>
       </c>
       <c r="C4" t="n">
-        <v>482.1967053476902</v>
+        <v>459.9408362448543</v>
       </c>
       <c r="D4" t="n">
-        <v>482.1967053476902</v>
+        <v>459.9408362448543</v>
       </c>
       <c r="E4" t="n">
-        <v>482.1967053476902</v>
+        <v>459.9408362448543</v>
       </c>
       <c r="F4" t="n">
-        <v>482.1967053476902</v>
+        <v>313.0508887469439</v>
       </c>
       <c r="G4" t="n">
-        <v>313.6273447026937</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361716</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512189</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="T4" t="n">
-        <v>719.2759572512189</v>
+        <v>700.593955598722</v>
       </c>
       <c r="U4" t="n">
-        <v>651.1328882755971</v>
+        <v>700.593955598722</v>
       </c>
       <c r="V4" t="n">
-        <v>651.1328882755971</v>
+        <v>459.9408362448543</v>
       </c>
       <c r="W4" t="n">
-        <v>651.1328882755971</v>
+        <v>459.9408362448543</v>
       </c>
       <c r="X4" t="n">
-        <v>651.1328882755971</v>
+        <v>459.9408362448543</v>
       </c>
       <c r="Y4" t="n">
-        <v>651.1328882755971</v>
+        <v>459.9408362448543</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307.6661507067967</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C5" t="n">
-        <v>41.28849413961871</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="D5" t="n">
-        <v>41.28849413961871</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E5" t="n">
         <v>41.00642392276842</v>
@@ -4556,31 +4556,31 @@
         <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K5" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4595,22 +4595,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>840.4214638411526</v>
+        <v>840.1393936243026</v>
       </c>
       <c r="V5" t="n">
-        <v>840.4214638411526</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="W5" t="n">
-        <v>574.0438072739746</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="X5" t="n">
-        <v>574.0438072739746</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="Y5" t="n">
-        <v>307.6661507067967</v>
+        <v>307.3840804899464</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>404.2669802945684</v>
+        <v>188.197285938774</v>
       </c>
       <c r="C6" t="n">
-        <v>404.2669802945684</v>
+        <v>188.197285938774</v>
       </c>
       <c r="D6" t="n">
-        <v>255.3325706333172</v>
+        <v>188.197285938774</v>
       </c>
       <c r="E6" t="n">
-        <v>96.09511562786167</v>
+        <v>188.197285938774</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004801</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4674,22 +4674,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>858.0464416374624</v>
       </c>
       <c r="U6" t="n">
-        <v>826.7196740428381</v>
+        <v>858.0464416374624</v>
       </c>
       <c r="V6" t="n">
-        <v>826.7196740428381</v>
+        <v>858.0464416374624</v>
       </c>
       <c r="W6" t="n">
-        <v>572.4823173146365</v>
+        <v>603.8090849092607</v>
       </c>
       <c r="X6" t="n">
-        <v>572.4823173146365</v>
+        <v>395.9575847037279</v>
       </c>
       <c r="Y6" t="n">
-        <v>572.4823173146365</v>
+        <v>188.197285938774</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>339.6957333972991</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="C7" t="n">
-        <v>313.6273447026937</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="D7" t="n">
-        <v>313.6273447026937</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="E7" t="n">
-        <v>313.6273447026937</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="F7" t="n">
-        <v>313.6273447026937</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G7" t="n">
-        <v>313.6273447026937</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H7" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
         <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4756,19 +4756,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>788.4778634388466</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>788.4778634388466</v>
+        <v>800.1710318001379</v>
       </c>
       <c r="W7" t="n">
-        <v>788.4778634388466</v>
+        <v>800.1710318001379</v>
       </c>
       <c r="X7" t="n">
-        <v>560.4883125408293</v>
+        <v>572.1814809021206</v>
       </c>
       <c r="Y7" t="n">
-        <v>339.6957333972991</v>
+        <v>351.3889017585905</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1224.113358615619</v>
+        <v>1178.338653181965</v>
       </c>
       <c r="C8" t="n">
-        <v>855.1508416752075</v>
+        <v>809.3761362415537</v>
       </c>
       <c r="D8" t="n">
-        <v>855.1508416752075</v>
+        <v>451.1104376348032</v>
       </c>
       <c r="E8" t="n">
-        <v>469.3625890769633</v>
+        <v>65.32218503655903</v>
       </c>
       <c r="F8" t="n">
-        <v>58.37668428735572</v>
+        <v>58.37668428735557</v>
       </c>
       <c r="G8" t="n">
-        <v>46.51640239181675</v>
+        <v>46.51640239181659</v>
       </c>
       <c r="H8" t="n">
-        <v>46.51640239181675</v>
+        <v>46.51640239181659</v>
       </c>
       <c r="I8" t="n">
-        <v>46.51640239181675</v>
+        <v>46.51640239181659</v>
       </c>
       <c r="J8" t="n">
-        <v>166.4989367229155</v>
+        <v>166.498936722915</v>
       </c>
       <c r="K8" t="n">
-        <v>397.0601716677479</v>
+        <v>397.0601716677465</v>
       </c>
       <c r="L8" t="n">
-        <v>719.9935330937556</v>
+        <v>719.9935330937528</v>
       </c>
       <c r="M8" t="n">
-        <v>1110.988557721574</v>
+        <v>1110.98855772157</v>
       </c>
       <c r="N8" t="n">
-        <v>1512.924098999416</v>
+        <v>1512.924098999411</v>
       </c>
       <c r="O8" t="n">
-        <v>1879.125171830551</v>
+        <v>1879.125171830545</v>
       </c>
       <c r="P8" t="n">
-        <v>2157.168314271717</v>
+        <v>2157.16831427171</v>
       </c>
       <c r="Q8" t="n">
-        <v>2317.794388257576</v>
+        <v>2317.794388257568</v>
       </c>
       <c r="R8" t="n">
-        <v>2325.820119590838</v>
+        <v>2325.82011959083</v>
       </c>
       <c r="S8" t="n">
-        <v>2196.656028259773</v>
+        <v>2325.82011959083</v>
       </c>
       <c r="T8" t="n">
-        <v>2196.656028259773</v>
+        <v>2325.82011959083</v>
       </c>
       <c r="U8" t="n">
-        <v>1943.059292671135</v>
+        <v>2072.223384002191</v>
       </c>
       <c r="V8" t="n">
-        <v>1611.996405327564</v>
+        <v>1741.16049665862</v>
       </c>
       <c r="W8" t="n">
-        <v>1611.996405327564</v>
+        <v>1388.391841388506</v>
       </c>
       <c r="X8" t="n">
-        <v>1610.713198679741</v>
+        <v>1388.391841388506</v>
       </c>
       <c r="Y8" t="n">
-        <v>1610.713198679741</v>
+        <v>1388.391841388506</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>770.4575984713148</v>
+        <v>931.3005198785846</v>
       </c>
       <c r="C9" t="n">
-        <v>596.0045691901878</v>
+        <v>756.8474905974576</v>
       </c>
       <c r="D9" t="n">
-        <v>447.0701595289365</v>
+        <v>607.9130809362064</v>
       </c>
       <c r="E9" t="n">
-        <v>287.832704523481</v>
+        <v>448.6756259307508</v>
       </c>
       <c r="F9" t="n">
-        <v>141.2981465503659</v>
+        <v>302.1410679576358</v>
       </c>
       <c r="G9" t="n">
-        <v>141.2981465503659</v>
+        <v>165.3348225797257</v>
       </c>
       <c r="H9" t="n">
-        <v>46.51640239181675</v>
+        <v>70.55307842117649</v>
       </c>
       <c r="I9" t="n">
-        <v>46.51640239181675</v>
+        <v>46.51640239181659</v>
       </c>
       <c r="J9" t="n">
-        <v>99.15933091977897</v>
+        <v>99.1593309197785</v>
       </c>
       <c r="K9" t="n">
-        <v>267.2893053412814</v>
+        <v>529.1098899837333</v>
       </c>
       <c r="L9" t="n">
-        <v>539.6833456336951</v>
+        <v>801.5039302761463</v>
       </c>
       <c r="M9" t="n">
-        <v>876.9112108303583</v>
+        <v>1138.731795472809</v>
       </c>
       <c r="N9" t="n">
-        <v>1452.551690429091</v>
+        <v>1499.293723724144</v>
       </c>
       <c r="O9" t="n">
-        <v>1760.175618089978</v>
+        <v>1806.91765138503</v>
       </c>
       <c r="P9" t="n">
-        <v>2223.619974106028</v>
+        <v>2223.61997410602</v>
       </c>
       <c r="Q9" t="n">
-        <v>2325.820119590838</v>
+        <v>2325.82011959083</v>
       </c>
       <c r="R9" t="n">
-        <v>2325.820119590838</v>
+        <v>2325.82011959083</v>
       </c>
       <c r="S9" t="n">
-        <v>2188.151005160692</v>
+        <v>2188.151005160683</v>
       </c>
       <c r="T9" t="n">
-        <v>1993.721818661024</v>
+        <v>1993.721818661015</v>
       </c>
       <c r="U9" t="n">
-        <v>1765.624817505273</v>
+        <v>1765.624817505264</v>
       </c>
       <c r="V9" t="n">
-        <v>1530.47270927353</v>
+        <v>1765.624817505264</v>
       </c>
       <c r="W9" t="n">
-        <v>1354.284734461869</v>
+        <v>1511.387460777063</v>
       </c>
       <c r="X9" t="n">
-        <v>1146.433234256337</v>
+        <v>1307.276155663606</v>
       </c>
       <c r="Y9" t="n">
-        <v>938.6729354913828</v>
+        <v>1099.515856898653</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>512.620490070121</v>
+        <v>323.9508237453585</v>
       </c>
       <c r="C10" t="n">
-        <v>512.620490070121</v>
+        <v>155.0146408174517</v>
       </c>
       <c r="D10" t="n">
-        <v>362.5038506577853</v>
+        <v>155.0146408174517</v>
       </c>
       <c r="E10" t="n">
-        <v>214.5907570753922</v>
+        <v>155.0146408174517</v>
       </c>
       <c r="F10" t="n">
-        <v>214.5907570753922</v>
+        <v>155.0146408174517</v>
       </c>
       <c r="G10" t="n">
-        <v>46.51640239181675</v>
+        <v>155.0146408174517</v>
       </c>
       <c r="H10" t="n">
-        <v>46.51640239181675</v>
+        <v>155.0146408174517</v>
       </c>
       <c r="I10" t="n">
-        <v>46.51640239181675</v>
+        <v>46.51640239181659</v>
       </c>
       <c r="J10" t="n">
-        <v>65.89540801909521</v>
+        <v>65.89540801909483</v>
       </c>
       <c r="K10" t="n">
-        <v>227.5779039736013</v>
+        <v>227.5779039736005</v>
       </c>
       <c r="L10" t="n">
-        <v>490.0022680632608</v>
+        <v>490.0022680632596</v>
       </c>
       <c r="M10" t="n">
-        <v>777.0810884794039</v>
+        <v>777.0810884794023</v>
       </c>
       <c r="N10" t="n">
-        <v>1062.768432620618</v>
+        <v>1062.768432620616</v>
       </c>
       <c r="O10" t="n">
-        <v>1310.630639257113</v>
+        <v>1310.630639257111</v>
       </c>
       <c r="P10" t="n">
-        <v>1499.198894325115</v>
+        <v>1499.198894325112</v>
       </c>
       <c r="Q10" t="n">
-        <v>1546.318699718229</v>
+        <v>1546.318699718226</v>
       </c>
       <c r="R10" t="n">
-        <v>1546.318699718229</v>
+        <v>1439.783439600081</v>
       </c>
       <c r="S10" t="n">
-        <v>1348.158269020052</v>
+        <v>1241.623008901904</v>
       </c>
       <c r="T10" t="n">
-        <v>1124.804258249593</v>
+        <v>1095.747994344981</v>
       </c>
       <c r="U10" t="n">
-        <v>1124.804258249593</v>
+        <v>806.6248628492627</v>
       </c>
       <c r="V10" t="n">
-        <v>1124.804258249593</v>
+        <v>551.9403746433759</v>
       </c>
       <c r="W10" t="n">
-        <v>835.3870882126325</v>
+        <v>551.9403746433759</v>
       </c>
       <c r="X10" t="n">
-        <v>694.2689549003608</v>
+        <v>323.9508237453585</v>
       </c>
       <c r="Y10" t="n">
-        <v>694.2689549003608</v>
+        <v>323.9508237453585</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,22 +5027,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,37 +5051,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1336.167399417937</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1888.077129657224</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>802.9288273958734</v>
+        <v>695.5020655703053</v>
       </c>
       <c r="C13" t="n">
-        <v>633.9926444679666</v>
+        <v>526.5658826423984</v>
       </c>
       <c r="D13" t="n">
-        <v>633.9926444679666</v>
+        <v>526.5658826423984</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>378.6527890600053</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>378.6527890600053</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>211.4566897748852</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703053</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,22 +5264,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5291,25 +5291,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5364,19 +5364,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168622</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362696</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="20">
@@ -5750,22 +5750,22 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>634.5603720565526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1910.695003076829</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1656.010514870942</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1366.593344833982</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1138.603793935964</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.603793935964</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5969,10 +5969,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>710.2486053718725</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2376.429105670894</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2156.827640693835</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1867.752414038033</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1613.067925832146</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1323.650755795185</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1095.661204897168</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>874.8686257536381</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6209,13 +6209,13 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6312,16 +6312,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>557.5558870561822</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1732.088140170817</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1477.40365196493</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1187.986481927969</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>959.9969310299521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>739.2043518864219</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6452,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6500,10 +6500,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1965.532750177311</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1965.532750177311</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2389.155899672379</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6698,19 +6698,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6786,19 +6786,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683105</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954152</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,7 +7117,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
@@ -7126,7 +7126,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7166,28 +7166,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7196,16 +7196,16 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1702.07903472198</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,28 +7330,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954154</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380735</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231133</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
@@ -7366,10 +7366,10 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X40" t="n">
         <v>1280.33868158239</v>
@@ -7391,28 +7391,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
@@ -7424,34 +7424,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150029</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7600,10 +7600,10 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7734,19 +7734,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319329</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942659</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345482</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,49 +7807,49 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069063</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8152,7 +8152,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.006563314041</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069065</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127245</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>217.2510619670674</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>238.2647471787217</v>
+        <v>191.0505721332076</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>27.38164655864789</v>
+        <v>27.3816465586481</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>137.8889440349304</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>149.1202946442038</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50.4797526277618</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>232.2684027589835</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>86.56681978312254</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22638,7 +22638,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>31.83774745691585</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -22674,7 +22674,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -22692,7 +22692,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>72.44299300164693</v>
       </c>
     </row>
     <row r="4">
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22759,19 +22759,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>13.89105516349895</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>62.89964020219851</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>105.0969227051452</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>61.40075786968302</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>122.808416965156</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>213.9188905722449</v>
+        <v>146.3469868924065</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>153.7108110197802</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>57.22910392194177</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>177.5728945814938</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>43.26526345294982</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1341550.992928708</v>
+        <v>1341550.992928707</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1341550.992928708</v>
+        <v>1341550.992928707</v>
       </c>
     </row>
     <row r="10">
@@ -26314,34 +26314,34 @@
         <v>67700.85635772871</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642831</v>
+        <v>82104.17698642833</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.17698642833</v>
       </c>
       <c r="E2" t="n">
-        <v>80714.65996900067</v>
+        <v>80714.65996900063</v>
       </c>
       <c r="F2" t="n">
-        <v>80714.65996900064</v>
+        <v>80714.65996900066</v>
       </c>
       <c r="G2" t="n">
+        <v>80714.65996900066</v>
+      </c>
+      <c r="H2" t="n">
+        <v>80714.65996900066</v>
+      </c>
+      <c r="I2" t="n">
+        <v>80714.6599690006</v>
+      </c>
+      <c r="J2" t="n">
+        <v>80714.65996900058</v>
+      </c>
+      <c r="K2" t="n">
         <v>80714.65996900061</v>
       </c>
-      <c r="H2" t="n">
-        <v>80714.6599690006</v>
-      </c>
-      <c r="I2" t="n">
-        <v>80714.65996900061</v>
-      </c>
-      <c r="J2" t="n">
-        <v>80714.65996900061</v>
-      </c>
-      <c r="K2" t="n">
-        <v>80714.6599690006</v>
-      </c>
       <c r="L2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="M2" t="n">
         <v>82104.1769864284</v>
@@ -26350,7 +26350,7 @@
         <v>82104.17698642837</v>
       </c>
       <c r="O2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="P2" t="n">
         <v>82104.17698642839</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>331437.5228512972</v>
+        <v>331437.5228512951</v>
       </c>
       <c r="E3" t="n">
-        <v>563905.7843424123</v>
+        <v>563905.7843424144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911403</v>
       </c>
       <c r="K3" t="n">
-        <v>5.145141455743994e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>99845.14336201169</v>
+        <v>99845.14336201127</v>
       </c>
       <c r="M3" t="n">
-        <v>147342.676956956</v>
+        <v>147342.6769569566</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>250332.6659748621</v>
       </c>
       <c r="D4" t="n">
-        <v>156056.4565677631</v>
+        <v>156056.4565677636</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678109</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678116</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678122</v>
+        <v>10557.08828678112</v>
       </c>
       <c r="H4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678122</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="J4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678122</v>
       </c>
       <c r="L4" t="n">
         <v>18547.94754987466</v>
       </c>
       <c r="M4" t="n">
-        <v>18547.94754987464</v>
+        <v>18547.94754987465</v>
       </c>
       <c r="N4" t="n">
-        <v>18547.94754987465</v>
+        <v>18547.94754987468</v>
       </c>
       <c r="O4" t="n">
-        <v>18547.94754987471</v>
+        <v>18547.9475498747</v>
       </c>
       <c r="P4" t="n">
-        <v>18547.94754987469</v>
+        <v>18547.94754987466</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>88290.79546543573</v>
+        <v>88290.79546543557</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-843558.1814754552</v>
+        <v>-843918.2644911727</v>
       </c>
       <c r="C6" t="n">
         <v>-231276.2921927</v>
       </c>
       <c r="D6" t="n">
-        <v>-493680.5978980676</v>
+        <v>-493680.5978980659</v>
       </c>
       <c r="E6" t="n">
-        <v>-594870.7424840999</v>
+        <v>-594905.4804095377</v>
       </c>
       <c r="F6" t="n">
-        <v>-30964.95814168768</v>
+        <v>-30999.69606712332</v>
       </c>
       <c r="G6" t="n">
-        <v>-30964.95814168772</v>
+        <v>-30999.69606712328</v>
       </c>
       <c r="H6" t="n">
-        <v>-30964.95814168772</v>
+        <v>-30999.69606712341</v>
       </c>
       <c r="I6" t="n">
-        <v>-30964.95814168772</v>
+        <v>-30999.69606712344</v>
       </c>
       <c r="J6" t="n">
-        <v>-99964.11256080178</v>
+        <v>-99998.85048623745</v>
       </c>
       <c r="K6" t="n">
-        <v>-30964.95814168782</v>
+        <v>-30999.69606712341</v>
       </c>
       <c r="L6" t="n">
-        <v>-139453.0297793734</v>
+        <v>-139453.029779373</v>
       </c>
       <c r="M6" t="n">
-        <v>-186950.5633743176</v>
+        <v>-186950.5633743182</v>
       </c>
       <c r="N6" t="n">
-        <v>-39607.88641736169</v>
+        <v>-39607.8864173617</v>
       </c>
       <c r="O6" t="n">
-        <v>-39607.88641736178</v>
+        <v>-39607.88641736168</v>
       </c>
       <c r="P6" t="n">
-        <v>-39607.8864173617</v>
+        <v>-39607.88641736167</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>885.8132865896791</v>
+        <v>885.8132865896775</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>581.4550298977094</v>
+        <v>581.4550298977074</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26823,10 +26823,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203962</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.593876154527292e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>271.7582728202009</v>
+        <v>271.7582728201992</v>
       </c>
       <c r="E3" t="n">
-        <v>482.1622137519946</v>
+        <v>482.1622137519964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>317.7411498962033</v>
+        <v>317.7411498962013</v>
       </c>
       <c r="E4" t="n">
-        <v>591.2532582019389</v>
+        <v>591.2532582019412</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962033</v>
+        <v>317.7411498962013</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019389</v>
+        <v>591.2532582019412</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962033</v>
+        <v>317.7411498962013</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019389</v>
+        <v>591.2532582019412</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>283.1642808953465</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27464,7 +27464,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>85.27446466403242</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27473,10 +27473,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
@@ -27518,10 +27518,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>218.7969922168119</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.65112055758</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27667,22 +27667,22 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>38.57920276037748</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590687</v>
+        <v>85.52708871590681</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>70.82118721792013</v>
+        <v>79.11935888132669</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27758,10 +27758,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>159.7703165054346</v>
       </c>
       <c r="C7" t="n">
-        <v>141.4391162909684</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,10 +27828,10 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117135</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>174.7811853390053</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>303.0051123819519</v>
+        <v>303.005112381952</v>
       </c>
       <c r="I8" t="n">
-        <v>73.18818411815019</v>
+        <v>73.18818411815042</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>127.8724504177538</v>
       </c>
       <c r="T8" t="n">
         <v>207.5073162493723</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>368.4607260971243</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27944,13 +27944,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.438182924131</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.79630926906619</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27989,13 +27989,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>77.26888809737525</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>3.702793141155865</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3936111367397</v>
       </c>
       <c r="H10" t="n">
         <v>148.025116863428</v>
       </c>
       <c r="I10" t="n">
-        <v>107.4132560413786</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>105.4699075169637</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>76.70420625140082</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2319001807608</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>86.00270340988811</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-5.204402199058039e-12</v>
       </c>
     </row>
     <row r="14">
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X29" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30751,7 +30751,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.561058438551471</v>
+        <v>3.561058438551465</v>
       </c>
       <c r="H8" t="n">
-        <v>36.46968973381527</v>
+        <v>36.4696897338152</v>
       </c>
       <c r="I8" t="n">
-        <v>137.2877054522557</v>
+        <v>137.2877054522555</v>
       </c>
       <c r="J8" t="n">
-        <v>302.2403836490082</v>
+        <v>302.2403836490076</v>
       </c>
       <c r="K8" t="n">
-        <v>452.9799873528921</v>
+        <v>452.9799873528913</v>
       </c>
       <c r="L8" t="n">
-        <v>561.9617295417117</v>
+        <v>561.9617295417107</v>
       </c>
       <c r="M8" t="n">
-        <v>625.2907025483015</v>
+        <v>625.2907025483004</v>
       </c>
       <c r="N8" t="n">
-        <v>635.4085598368359</v>
+        <v>635.4085598368348</v>
       </c>
       <c r="O8" t="n">
-        <v>599.9982849884897</v>
+        <v>599.9982849884885</v>
       </c>
       <c r="P8" t="n">
-        <v>512.0846547867501</v>
+        <v>512.0846547867492</v>
       </c>
       <c r="Q8" t="n">
-        <v>384.5542494561254</v>
+        <v>384.5542494561248</v>
       </c>
       <c r="R8" t="n">
-        <v>223.692337140659</v>
+        <v>223.6923371406587</v>
       </c>
       <c r="S8" t="n">
-        <v>81.14761916849173</v>
+        <v>81.14761916849159</v>
       </c>
       <c r="T8" t="n">
-        <v>15.58853331475907</v>
+        <v>15.58853331475905</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2848846750841176</v>
+        <v>0.2848846750841171</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.905334239079687</v>
+        <v>1.905334239079684</v>
       </c>
       <c r="H9" t="n">
-        <v>18.40151751953277</v>
+        <v>18.40151751953274</v>
       </c>
       <c r="I9" t="n">
-        <v>65.60032358234889</v>
+        <v>65.60032358234878</v>
       </c>
       <c r="J9" t="n">
-        <v>180.0123019474366</v>
+        <v>180.0123019474363</v>
       </c>
       <c r="K9" t="n">
-        <v>307.6696959657756</v>
+        <v>307.6696959657751</v>
       </c>
       <c r="L9" t="n">
-        <v>413.6998750247365</v>
+        <v>413.6998750247358</v>
       </c>
       <c r="M9" t="n">
-        <v>482.7682411913751</v>
+        <v>482.7682411913742</v>
       </c>
       <c r="N9" t="n">
-        <v>495.5456800139754</v>
+        <v>495.5456800139744</v>
       </c>
       <c r="O9" t="n">
-        <v>453.3274845059465</v>
+        <v>453.3274845059456</v>
       </c>
       <c r="P9" t="n">
-        <v>363.8352723730326</v>
+        <v>363.835272373032</v>
       </c>
       <c r="Q9" t="n">
-        <v>243.2142442726984</v>
+        <v>243.2142442726979</v>
       </c>
       <c r="R9" t="n">
-        <v>118.2978574053161</v>
+        <v>118.2978574053159</v>
       </c>
       <c r="S9" t="n">
-        <v>35.39074781799329</v>
+        <v>35.39074781799323</v>
       </c>
       <c r="T9" t="n">
-        <v>7.67983406015014</v>
+        <v>7.679834060150126</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1253509367815584</v>
+        <v>0.1253509367815582</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.597368221719093</v>
+        <v>1.597368221719091</v>
       </c>
       <c r="H10" t="n">
-        <v>14.20205564401159</v>
+        <v>14.20205564401156</v>
       </c>
       <c r="I10" t="n">
-        <v>48.03721888587966</v>
+        <v>48.03721888587958</v>
       </c>
       <c r="J10" t="n">
-        <v>112.9339332755399</v>
+        <v>112.9339332755397</v>
       </c>
       <c r="K10" t="n">
-        <v>185.5851443051819</v>
+        <v>185.5851443051816</v>
       </c>
       <c r="L10" t="n">
-        <v>237.4850899817642</v>
+        <v>237.4850899817637</v>
       </c>
       <c r="M10" t="n">
-        <v>250.394729519112</v>
+        <v>250.3947295191116</v>
       </c>
       <c r="N10" t="n">
-        <v>244.4409025108865</v>
+        <v>244.4409025108861</v>
       </c>
       <c r="O10" t="n">
-        <v>225.7807373753498</v>
+        <v>225.7807373753494</v>
       </c>
       <c r="P10" t="n">
-        <v>193.1944256522801</v>
+        <v>193.1944256522797</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.7578062750416</v>
+        <v>133.7578062750413</v>
       </c>
       <c r="R10" t="n">
-        <v>71.82348386020576</v>
+        <v>71.82348386020563</v>
       </c>
       <c r="S10" t="n">
-        <v>27.83777164577728</v>
+        <v>27.83777164577723</v>
       </c>
       <c r="T10" t="n">
-        <v>6.825118765527034</v>
+        <v>6.825118765527021</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08712917573013247</v>
+        <v>0.0871291757301323</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>533.0479862785273</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>281.0363767960755</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328822</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>194.5189324111251</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,19 +32786,19 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>272.7569329364655</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>169.2687847673337</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,10 +32807,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33032,19 +33032,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>208.6096528357818</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>305.5427724581384</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>301.1823051500301</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,25 +33740,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>499.3768644016574</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>537.2623544349635</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34211,28 +34211,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>577.7447198439388</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.3216690912724</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089029</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34872,10 +34872,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204529</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35033,7 +35033,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877689</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>121.1944791223219</v>
+        <v>121.1944791223214</v>
       </c>
       <c r="K8" t="n">
-        <v>232.8901363079115</v>
+        <v>232.8901363079107</v>
       </c>
       <c r="L8" t="n">
-        <v>326.1953145717245</v>
+        <v>326.1953145717235</v>
       </c>
       <c r="M8" t="n">
-        <v>394.9444693210288</v>
+        <v>394.9444693210277</v>
       </c>
       <c r="N8" t="n">
-        <v>405.995496240245</v>
+        <v>405.9954962402439</v>
       </c>
       <c r="O8" t="n">
-        <v>369.9000735668029</v>
+        <v>369.9000735668018</v>
       </c>
       <c r="P8" t="n">
-        <v>280.8516590314806</v>
+        <v>280.8516590314796</v>
       </c>
       <c r="Q8" t="n">
-        <v>162.2485595816759</v>
+        <v>162.2485595816753</v>
       </c>
       <c r="R8" t="n">
-        <v>8.106799326526925</v>
+        <v>8.106799326526527</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>53.17467528076992</v>
+        <v>53.17467528076961</v>
       </c>
       <c r="K9" t="n">
-        <v>169.8282569914167</v>
+        <v>434.2934940039947</v>
       </c>
       <c r="L9" t="n">
-        <v>275.1454952448623</v>
+        <v>275.1454952448616</v>
       </c>
       <c r="M9" t="n">
-        <v>340.6342072693568</v>
+        <v>340.6342072693559</v>
       </c>
       <c r="N9" t="n">
-        <v>581.4550298977094</v>
+        <v>364.2039679306412</v>
       </c>
       <c r="O9" t="n">
-        <v>310.731240061502</v>
+        <v>310.7312400615012</v>
       </c>
       <c r="P9" t="n">
-        <v>468.1256121374241</v>
+        <v>420.9114370919093</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.2324701866768</v>
+        <v>103.2324701866764</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>19.57475315886713</v>
+        <v>19.57475315886691</v>
       </c>
       <c r="K10" t="n">
-        <v>163.315652479299</v>
+        <v>163.3156524792987</v>
       </c>
       <c r="L10" t="n">
-        <v>265.0751152420803</v>
+        <v>265.0751152420798</v>
       </c>
       <c r="M10" t="n">
-        <v>289.9786064809526</v>
+        <v>289.9786064809522</v>
       </c>
       <c r="N10" t="n">
-        <v>288.5730748901151</v>
+        <v>288.5730748901146</v>
       </c>
       <c r="O10" t="n">
-        <v>250.3658652893894</v>
+        <v>250.365865289389</v>
       </c>
       <c r="P10" t="n">
-        <v>190.4729849171736</v>
+        <v>190.4729849171732</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.59576302334717</v>
+        <v>47.59576302334692</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>399.073578864197</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>138.9023428740572</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>55.9645526312509</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>134.2025531565913</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>27.13475084531539</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,10 +36455,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36680,19 +36680,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>66.47561891376348</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>165.5609983721169</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>159.0482712280117</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980851</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>368.035152318324</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016746</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>394.6661099905191</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367785</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37859,28 +37859,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>439.1903400640646</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
